--- a/biology/Zoologie/Acropora_polystoma/Acropora_polystoma.xlsx
+++ b/biology/Zoologie/Acropora_polystoma/Acropora_polystoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropora polystoma est une espèce de coraux appartenant à la famille des Acroporidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce corail forme des colonies en blocs irréguliers ou en plaques corymbées avec des branches effilées de longueur et de forme semblable. Le corallite axial est petit et proéminent. Les corallites radiaux sont d'habitude arrangés en rangées en bas des côtés de branches secondaires. Ils sont tubulaires et de taille très irrégulière, donnant une apparence épineuse à l'ensemble[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce corail forme des colonies en blocs irréguliers ou en plaques corymbées avec des branches effilées de longueur et de forme semblable. Le corallite axial est petit et proéminent. Les corallites radiaux sont d'habitude arrangés en rangées en bas des côtés de branches secondaires. Ils sont tubulaires et de taille très irrégulière, donnant une apparence épineuse à l'ensemble.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un corail à la répartition assez discontinue, présent de la Mer Rouge au pacifique mais surtout abondant dans la région indonésienne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un corail à la répartition assez discontinue, présent de la Mer Rouge au pacifique mais surtout abondant dans la région indonésienne.
 </t>
         </is>
       </c>
